--- a/src/main/webapp/res/file/form/양식_일괄학생성적.xlsx
+++ b/src/main/webapp/res/file/form/양식_일괄학생성적.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9594A843-A90D-4DBE-8B59-6B8EB38D0ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8971DD-1B95-45B6-B439-A6CA16B10720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>년도</t>
   </si>
@@ -134,6 +134,30 @@
   </si>
   <si>
     <t>다음과 같은 양식으로 data 시트에 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분반</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -241,13 +265,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -531,33 +556,34 @@
   <dimension ref="B1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8.796875" style="7"/>
     <col min="3" max="5" width="8.796875" style="3"/>
-    <col min="6" max="6" width="8.796875" style="7"/>
+    <col min="6" max="7" width="8.796875" style="7"/>
     <col min="9" max="9" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
@@ -574,6 +600,9 @@
       </c>
       <c r="F2" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8" t="s">
@@ -600,6 +629,9 @@
       <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <v>201432017</v>
@@ -623,6 +655,9 @@
         <v>10</v>
       </c>
       <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8">
         <v>201432017</v>
@@ -646,6 +681,9 @@
         <v>24</v>
       </c>
       <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8">
         <v>201432017</v>
@@ -671,6 +709,9 @@
       <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="G6" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8">
         <v>201832017</v>
@@ -696,6 +737,9 @@
       <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="G7" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8">
         <v>201812330</v>
@@ -719,6 +763,9 @@
         <v>7</v>
       </c>
       <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8">
         <v>201812330</v>
@@ -743,6 +790,9 @@
       </c>
       <c r="F9" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8">
@@ -759,6 +809,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
@@ -766,6 +817,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
@@ -773,6 +825,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
@@ -780,6 +833,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
@@ -787,6 +841,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
@@ -794,6 +849,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
@@ -801,179 +857,204 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -983,27 +1064,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70ABE82C-11BB-4B49-8CD0-CC59067EB97B}">
-  <dimension ref="B1:F40"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="8.796875" style="7"/>
     <col min="3" max="5" width="8.796875" style="3"/>
-    <col min="6" max="6" width="8.796875" style="7"/>
+    <col min="6" max="7" width="8.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1019,272 +1101,313 @@
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="C4" s="4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="6"/>
       <c r="C5" s="4"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="6"/>
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="6"/>
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="6"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="6"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="6"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="6"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="6"/>
       <c r="C29" s="4"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="6"/>
       <c r="C31" s="4"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="6"/>
       <c r="C33" s="4"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="4"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="6"/>
       <c r="C37" s="4"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="6"/>
       <c r="C39" s="4"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
